--- a/biology/Botanique/Eucalyptus_parramattensis/Eucalyptus_parramattensis.xlsx
+++ b/biology/Botanique/Eucalyptus_parramattensis/Eucalyptus_parramattensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus parramattensis est une espèce du genre Eucalyptus, famille des Myrtaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eucalyptus parramattensis pousse comme un arbre qui peut atteindre une hauteur de 15 mètres[2]. Le tronc est lisse, avec une écorce grise et grumeleuse[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eucalyptus parramattensis pousse comme un arbre qui peut atteindre une hauteur de 15 mètres. Le tronc est lisse, avec une écorce grise et grumeleuse.
 Il y a deux sous-espèces distinguées par la taille du fruit. La sous-espèce parramattensis a des fruits de moins de 7 millimètres de diamètre, tandis que le sous-espèce decadens a des fruits de plus de 7 mm de diamètre.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition est les zones côtières au centre de la Nouvelle-Galles du Sud : le nord, le sud et l'ouest de Sydney, dans des endroits tels que Liverpool, Thirlmere, Richmond, Putty et Kanwal.
 Eucalyptus parramattensis est présent dans la forêt sclérophylle sèche, souvent dans des sites humides et dans des sols sableux.
